--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col4a3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H2">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I2">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J2">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>3.130047341902884</v>
+        <v>5.501270079222667</v>
       </c>
       <c r="R2">
-        <v>3.130047341902884</v>
+        <v>49.511430713004</v>
       </c>
       <c r="S2">
-        <v>0.009609744717492123</v>
+        <v>0.01358407231344975</v>
       </c>
       <c r="T2">
-        <v>0.009609744717492123</v>
+        <v>0.01738014938699547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H3">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I3">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J3">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>27.29986616869263</v>
+        <v>36.22936378611167</v>
       </c>
       <c r="R3">
-        <v>27.29986616869263</v>
+        <v>326.064274075005</v>
       </c>
       <c r="S3">
-        <v>0.08381494464660262</v>
+        <v>0.08945975937439496</v>
       </c>
       <c r="T3">
-        <v>0.08381494464660262</v>
+        <v>0.1144593422483627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H4">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I4">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J4">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>22.28294187710564</v>
+        <v>30.42581707264267</v>
       </c>
       <c r="R4">
-        <v>22.28294187710564</v>
+        <v>273.832353653784</v>
       </c>
       <c r="S4">
-        <v>0.0684121866551448</v>
+        <v>0.07512928712072475</v>
       </c>
       <c r="T4">
-        <v>0.0684121866551448</v>
+        <v>0.09612421101467669</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H5">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I5">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J5">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>24.61204580113487</v>
+        <v>31.32237769798133</v>
       </c>
       <c r="R5">
-        <v>24.61204580113487</v>
+        <v>281.901399281832</v>
       </c>
       <c r="S5">
-        <v>0.07556290729466809</v>
+        <v>0.07734312941397807</v>
       </c>
       <c r="T5">
-        <v>0.07556290729466809</v>
+        <v>0.09895671285125002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.404871265252167</v>
+        <v>0.514897</v>
       </c>
       <c r="H6">
-        <v>0.404871265252167</v>
+        <v>1.544691</v>
       </c>
       <c r="I6">
-        <v>0.2671831300788802</v>
+        <v>0.2886981231148517</v>
       </c>
       <c r="J6">
-        <v>0.2671831300788802</v>
+        <v>0.3552234618564311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>9.700911742742209</v>
+        <v>13.4379773094115</v>
       </c>
       <c r="R6">
-        <v>9.700911742742209</v>
+        <v>80.62786385646901</v>
       </c>
       <c r="S6">
-        <v>0.02978334676497257</v>
+        <v>0.03318187489230415</v>
       </c>
       <c r="T6">
-        <v>0.02978334676497257</v>
+        <v>0.02830304635514625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H7">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I7">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J7">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>0.9919351439658559</v>
+        <v>1.339006325909778</v>
       </c>
       <c r="R7">
-        <v>0.9919351439658559</v>
+        <v>12.051056933188</v>
       </c>
       <c r="S7">
-        <v>0.003045399148507968</v>
+        <v>0.00330635625907958</v>
       </c>
       <c r="T7">
-        <v>0.003045399148507968</v>
+        <v>0.00423031947883065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H8">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I8">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J8">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>8.651529424416905</v>
+        <v>8.818208630859445</v>
       </c>
       <c r="R8">
-        <v>8.651529424416905</v>
+        <v>79.363877677735</v>
       </c>
       <c r="S8">
-        <v>0.02656157562587358</v>
+        <v>0.02177445971414793</v>
       </c>
       <c r="T8">
-        <v>0.02656157562587358</v>
+        <v>0.02785934540986687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H9">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I9">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J9">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>7.061629024886288</v>
+        <v>7.405628326649778</v>
       </c>
       <c r="R9">
-        <v>7.061629024886288</v>
+        <v>66.650654939848</v>
       </c>
       <c r="S9">
-        <v>0.02168032774147592</v>
+        <v>0.01828643009105946</v>
       </c>
       <c r="T9">
-        <v>0.02168032774147592</v>
+        <v>0.02339658383758635</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H10">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I10">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J10">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>7.799739278128921</v>
+        <v>7.623850724678221</v>
       </c>
       <c r="R10">
-        <v>7.799739278128921</v>
+        <v>68.614656522104</v>
       </c>
       <c r="S10">
-        <v>0.0239464439794217</v>
+        <v>0.01882527817387376</v>
       </c>
       <c r="T10">
-        <v>0.0239464439794217</v>
+        <v>0.02408601333708452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.128306697285094</v>
+        <v>0.1253256666666667</v>
       </c>
       <c r="H11">
-        <v>0.128306697285094</v>
+        <v>0.375977</v>
       </c>
       <c r="I11">
-        <v>0.08467230928172495</v>
+        <v>0.07026897562965834</v>
       </c>
       <c r="J11">
-        <v>0.08467230928172495</v>
+        <v>0.08646120908220181</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>3.074290652833077</v>
+        <v>3.270796809757167</v>
       </c>
       <c r="R11">
-        <v>3.074290652833077</v>
+        <v>19.624780858543</v>
       </c>
       <c r="S11">
-        <v>0.009438562786445774</v>
+        <v>0.008076451391497612</v>
       </c>
       <c r="T11">
-        <v>0.009438562786445774</v>
+        <v>0.006888947018833425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.982154480542649</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H12">
-        <v>0.982154480542649</v>
+        <v>0.034771</v>
       </c>
       <c r="I12">
-        <v>0.6481445606393947</v>
+        <v>0.006498595796069574</v>
       </c>
       <c r="J12">
-        <v>0.6481445606393947</v>
+        <v>0.007996081411887533</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>7.593006184930958</v>
+        <v>0.1238336093915556</v>
       </c>
       <c r="R12">
-        <v>7.593006184930958</v>
+        <v>1.114502484524</v>
       </c>
       <c r="S12">
-        <v>0.02331174040043936</v>
+        <v>0.0003057775169344297</v>
       </c>
       <c r="T12">
-        <v>0.02331174040043936</v>
+        <v>0.0003912272255973651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.982154480542649</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H13">
-        <v>0.982154480542649</v>
+        <v>0.034771</v>
       </c>
       <c r="I13">
-        <v>0.6481445606393947</v>
+        <v>0.006498595796069574</v>
       </c>
       <c r="J13">
-        <v>0.6481445606393947</v>
+        <v>0.007996081411887533</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>66.22521323931529</v>
+        <v>0.815523109933889</v>
       </c>
       <c r="R13">
-        <v>66.22521323931529</v>
+        <v>7.339707989405</v>
       </c>
       <c r="S13">
-        <v>0.2033219704288567</v>
+        <v>0.00201373950725879</v>
       </c>
       <c r="T13">
-        <v>0.2033219704288567</v>
+        <v>0.002576480208221463</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.982154480542649</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H14">
-        <v>0.982154480542649</v>
+        <v>0.034771</v>
       </c>
       <c r="I14">
-        <v>0.6481445606393947</v>
+        <v>0.006498595796069574</v>
       </c>
       <c r="J14">
-        <v>0.6481445606393947</v>
+        <v>0.007996081411887533</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>54.05493815581073</v>
+        <v>0.6848852524115556</v>
       </c>
       <c r="R14">
-        <v>54.05493815581073</v>
+        <v>6.163967271704</v>
       </c>
       <c r="S14">
-        <v>0.1659572842375502</v>
+        <v>0.00169116052496889</v>
       </c>
       <c r="T14">
-        <v>0.1659572842375502</v>
+        <v>0.002163756337799161</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.982154480542649</v>
+        <v>0.01159033333333333</v>
       </c>
       <c r="H15">
-        <v>0.982154480542649</v>
+        <v>0.034771</v>
       </c>
       <c r="I15">
-        <v>0.6481445606393947</v>
+        <v>0.006498595796069574</v>
       </c>
       <c r="J15">
-        <v>0.6481445606393947</v>
+        <v>0.007996081411887533</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>59.70498065317101</v>
+        <v>0.7050668353324444</v>
       </c>
       <c r="R15">
-        <v>59.70498065317101</v>
+        <v>6.345601517992001</v>
       </c>
       <c r="S15">
-        <v>0.183303816130453</v>
+        <v>0.001740994123001578</v>
       </c>
       <c r="T15">
-        <v>0.183303816130453</v>
+        <v>0.002227515964390816</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01159033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.034771</v>
+      </c>
+      <c r="I16">
+        <v>0.006498595796069574</v>
+      </c>
+      <c r="J16">
+        <v>0.007996081411887533</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.0983795</v>
+      </c>
+      <c r="N16">
+        <v>52.196759</v>
+      </c>
+      <c r="O16">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P16">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q16">
+        <v>0.3024889178648333</v>
+      </c>
+      <c r="R16">
+        <v>1.814933507189</v>
+      </c>
+      <c r="S16">
+        <v>0.0007469241239058865</v>
+      </c>
+      <c r="T16">
+        <v>0.0006371016758787292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.129665</v>
+      </c>
+      <c r="H17">
+        <v>0.388995</v>
+      </c>
+      <c r="I17">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J17">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N17">
+        <v>32.052644</v>
+      </c>
+      <c r="O17">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P17">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q17">
+        <v>1.385368694753333</v>
+      </c>
+      <c r="R17">
+        <v>12.46831825278</v>
+      </c>
+      <c r="S17">
+        <v>0.003420837053864097</v>
+      </c>
+      <c r="T17">
+        <v>0.004376791999690748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.129665</v>
+      </c>
+      <c r="H18">
+        <v>0.388995</v>
+      </c>
+      <c r="I18">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J18">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N18">
+        <v>211.087055</v>
+      </c>
+      <c r="O18">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P18">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q18">
+        <v>9.123534328858334</v>
+      </c>
+      <c r="R18">
+        <v>82.111808959725</v>
+      </c>
+      <c r="S18">
+        <v>0.02252838858894288</v>
+      </c>
+      <c r="T18">
+        <v>0.02882396015636903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.129665</v>
+      </c>
+      <c r="H19">
+        <v>0.388995</v>
+      </c>
+      <c r="I19">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J19">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N19">
+        <v>177.273224</v>
+      </c>
+      <c r="O19">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P19">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q19">
+        <v>7.662044196653333</v>
+      </c>
+      <c r="R19">
+        <v>68.95839776987999</v>
+      </c>
+      <c r="S19">
+        <v>0.01891958782923337</v>
+      </c>
+      <c r="T19">
+        <v>0.0242066778816308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.129665</v>
+      </c>
+      <c r="H20">
+        <v>0.388995</v>
+      </c>
+      <c r="I20">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J20">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N20">
+        <v>182.496952</v>
+      </c>
+      <c r="O20">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P20">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q20">
+        <v>7.887822427026666</v>
+      </c>
+      <c r="R20">
+        <v>70.99040184323999</v>
+      </c>
+      <c r="S20">
+        <v>0.01947709323508093</v>
+      </c>
+      <c r="T20">
+        <v>0.02491997850416167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.129665</v>
+      </c>
+      <c r="H21">
+        <v>0.388995</v>
+      </c>
+      <c r="I21">
+        <v>0.07270200085393241</v>
+      </c>
+      <c r="J21">
+        <v>0.08945488162023499</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.0983795</v>
+      </c>
+      <c r="N21">
+        <v>52.196759</v>
+      </c>
+      <c r="O21">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P21">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q21">
+        <v>3.3840463778675</v>
+      </c>
+      <c r="R21">
+        <v>20.304278267205</v>
+      </c>
+      <c r="S21">
+        <v>0.008356094146811145</v>
+      </c>
+      <c r="T21">
+        <v>0.007127473078382741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.0020355</v>
+      </c>
+      <c r="H22">
+        <v>2.004071</v>
+      </c>
+      <c r="I22">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J22">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.68421466666667</v>
+      </c>
+      <c r="N22">
+        <v>32.052644</v>
+      </c>
+      <c r="O22">
+        <v>0.04705285980693976</v>
+      </c>
+      <c r="P22">
+        <v>0.04892736897547583</v>
+      </c>
+      <c r="Q22">
+        <v>10.70596238562067</v>
+      </c>
+      <c r="R22">
+        <v>64.23577431372401</v>
+      </c>
+      <c r="S22">
+        <v>0.0264358166636119</v>
+      </c>
+      <c r="T22">
+        <v>0.02254888088436159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.0020355</v>
+      </c>
+      <c r="H23">
+        <v>2.004071</v>
+      </c>
+      <c r="I23">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J23">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>70.36235166666667</v>
+      </c>
+      <c r="N23">
+        <v>211.087055</v>
+      </c>
+      <c r="O23">
+        <v>0.3098730203341347</v>
+      </c>
+      <c r="P23">
+        <v>0.3222178559101571</v>
+      </c>
+      <c r="Q23">
+        <v>70.50557423348417</v>
+      </c>
+      <c r="R23">
+        <v>423.033445400905</v>
+      </c>
+      <c r="S23">
+        <v>0.1740966731493901</v>
+      </c>
+      <c r="T23">
+        <v>0.148498727887337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.982154480542649</v>
-      </c>
-      <c r="H16">
-        <v>0.982154480542649</v>
-      </c>
-      <c r="I16">
-        <v>0.6481445606393947</v>
-      </c>
-      <c r="J16">
-        <v>0.6481445606393947</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="N16">
-        <v>23.9604846659102</v>
-      </c>
-      <c r="O16">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="P16">
-        <v>0.1114716589935138</v>
-      </c>
-      <c r="Q16">
-        <v>23.53289737059714</v>
-      </c>
-      <c r="R16">
-        <v>23.53289737059714</v>
-      </c>
-      <c r="S16">
-        <v>0.0722497494420954</v>
-      </c>
-      <c r="T16">
-        <v>0.0722497494420954</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.0020355</v>
+      </c>
+      <c r="H24">
+        <v>2.004071</v>
+      </c>
+      <c r="I24">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J24">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.09107466666666</v>
+      </c>
+      <c r="N24">
+        <v>177.273224</v>
+      </c>
+      <c r="O24">
+        <v>0.2602347611759026</v>
+      </c>
+      <c r="P24">
+        <v>0.2706020894912812</v>
+      </c>
+      <c r="Q24">
+        <v>59.21135454915067</v>
+      </c>
+      <c r="R24">
+        <v>355.268127294904</v>
+      </c>
+      <c r="S24">
+        <v>0.1462082956099161</v>
+      </c>
+      <c r="T24">
+        <v>0.1247108604195882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.0020355</v>
+      </c>
+      <c r="H25">
+        <v>2.004071</v>
+      </c>
+      <c r="I25">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J25">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="N25">
+        <v>182.496952</v>
+      </c>
+      <c r="O25">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="P25">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="Q25">
+        <v>60.95614151526534</v>
+      </c>
+      <c r="R25">
+        <v>365.736849091592</v>
+      </c>
+      <c r="S25">
+        <v>0.1505166302268225</v>
+      </c>
+      <c r="T25">
+        <v>0.1283857279420398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.0020355</v>
+      </c>
+      <c r="H26">
+        <v>2.004071</v>
+      </c>
+      <c r="I26">
+        <v>0.5618323046054879</v>
+      </c>
+      <c r="J26">
+        <v>0.4608643660292445</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>26.0983795</v>
+      </c>
+      <c r="N26">
+        <v>52.196759</v>
+      </c>
+      <c r="O26">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="P26">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="Q26">
+        <v>26.15150275147225</v>
+      </c>
+      <c r="R26">
+        <v>104.606011005889</v>
+      </c>
+      <c r="S26">
+        <v>0.06457488895574734</v>
+      </c>
+      <c r="T26">
+        <v>0.03672016889591789</v>
       </c>
     </row>
   </sheetData>
